--- a/output/player_estimates.xlsx
+++ b/output/player_estimates.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>season</t>
   </si>
@@ -65,6 +65,27 @@
   </si>
   <si>
     <t>M2_12 Wild Hunt 2020</t>
+  </si>
+  <si>
+    <t>M3_01 Wolf 2021</t>
+  </si>
+  <si>
+    <t>M3_02 Love 2021</t>
+  </si>
+  <si>
+    <t>M3_03 Bear 2021</t>
+  </si>
+  <si>
+    <t>M3_04 Elf 2021</t>
+  </si>
+  <si>
+    <t>M3_05 Viper 2021</t>
+  </si>
+  <si>
+    <t>M3_06 Magic 2021</t>
+  </si>
+  <si>
+    <t>M3_07 Griffin 2021</t>
   </si>
 </sst>
 </file>
@@ -422,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,10 +560,10 @@
         <v>11400</v>
       </c>
       <c r="E6">
-        <v>9372.060606060606</v>
+        <v>9372.060606060608</v>
       </c>
       <c r="F6">
-        <v>727.3321970634987</v>
+        <v>727.3321970634984</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -562,7 +583,7 @@
         <v>8320.181818181818</v>
       </c>
       <c r="F7">
-        <v>618.2012296417554</v>
+        <v>618.2012296417555</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -582,7 +603,7 @@
         <v>14683.27272727273</v>
       </c>
       <c r="F8">
-        <v>1331.618216449507</v>
+        <v>1331.618216449506</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -662,7 +683,7 @@
         <v>16041.75757575757</v>
       </c>
       <c r="F12">
-        <v>976.2876802085998</v>
+        <v>976.2876802085996</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -673,16 +694,156 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>13000</v>
+        <v>12995.45454545455</v>
       </c>
       <c r="D13">
-        <v>36000</v>
+        <v>35900</v>
       </c>
       <c r="E13">
-        <v>23085.33333333334</v>
+        <v>23051.75757575758</v>
       </c>
       <c r="F13">
-        <v>3695.050984462565</v>
+        <v>3678.743988305898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>7968.181818181818</v>
+      </c>
+      <c r="D14">
+        <v>13700</v>
+      </c>
+      <c r="E14">
+        <v>9929.636363636364</v>
+      </c>
+      <c r="F14">
+        <v>1046.105394244657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>11645.45454545455</v>
+      </c>
+      <c r="D15">
+        <v>19500</v>
+      </c>
+      <c r="E15">
+        <v>13977.75757575757</v>
+      </c>
+      <c r="F15">
+        <v>1430.087790687181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>7466.666666666667</v>
+      </c>
+      <c r="D16">
+        <v>10900</v>
+      </c>
+      <c r="E16">
+        <v>9195.333333333332</v>
+      </c>
+      <c r="F16">
+        <v>715.137593598447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>11586.36363636364</v>
+      </c>
+      <c r="D17">
+        <v>20300</v>
+      </c>
+      <c r="E17">
+        <v>14814.60606060606</v>
+      </c>
+      <c r="F17">
+        <v>1527.809484803296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>12990.90909090909</v>
+      </c>
+      <c r="D18">
+        <v>20900</v>
+      </c>
+      <c r="E18">
+        <v>16159.51515151515</v>
+      </c>
+      <c r="F18">
+        <v>1322.54767637699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>11263.63636363636</v>
+      </c>
+      <c r="D19">
+        <v>17200</v>
+      </c>
+      <c r="E19">
+        <v>13526.06060606061</v>
+      </c>
+      <c r="F19">
+        <v>1034.558786372709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>10150</v>
+      </c>
+      <c r="D20">
+        <v>15800</v>
+      </c>
+      <c r="E20">
+        <v>12255.33333333333</v>
+      </c>
+      <c r="F20">
+        <v>1040.526362525771</v>
       </c>
     </row>
   </sheetData>
